--- a/testing.xlsx
+++ b/testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aloysiusloh/Documents/GitHub/CITS3402-Fish-School-Behaviour-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B388E5B4-F02B-7C40-9988-B2AAF87617B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932A9486-7E56-2E40-B21C-AFD8435409F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="25600" windowHeight="14300" xr2:uid="{5C532BCE-B888-084E-993C-65A1A3B0CB7A}"/>
   </bookViews>
@@ -16,28 +16,34 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$A$10:$A$11</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$B$10:$B$11</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$C$10:$C$11</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$D$10:$D$11</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$E$10:$E$11</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">Sheet1!$A$10:$A$11</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">Sheet1!$B$10:$B$11</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">Sheet1!$C$10:$C$11</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">Sheet1!$D$10:$D$11</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">Sheet1!$E$10:$E$11</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$G$3:$G$8</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$K$2</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$A$3:$A$9</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$E$3:$E$9</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$G$3:$G$8</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$K$2</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$K$3:$K$8</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$L$2</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$L$3:$L$8</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$K$7:$L$7</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$K$8:$L$8</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$K$7:$L$7</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$K$3:$K$8</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$K$8:$L$8</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$G$3:$G$8</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$K$2</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$K$3:$K$8</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$L$2</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$L$3:$L$8</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$L$2</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$L$3:$L$8</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$G$3:$G$8</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$K$2</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$K$3:$K$8</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$L$2</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$L$3:$L$8</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,10 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>1000000 Fish</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Threads</t>
   </si>
@@ -78,14 +81,26 @@
     <t>t avg</t>
   </si>
   <si>
-    <t>3000 steps</t>
+    <t>3000 Steps, 1000000 Fish</t>
+  </si>
+  <si>
+    <t>3000 Steps, 16 Threads</t>
+  </si>
+  <si>
+    <t>Fish</t>
+  </si>
+  <si>
+    <t>parallel</t>
+  </si>
+  <si>
+    <t>sequential</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -98,6 +113,13 @@
       <color rgb="FF000000"/>
       <name val="Menlo"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,10 +142,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -139,6 +162,3378 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>3000 Steps, 1000000 Fish</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>148.81283099999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>154.99992533333332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>155.71133166666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>156.0092076666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>155.92472166666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>174.13016566666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>176.1499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-03B5-4341-8257-571D4F743952}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2062758016"/>
+        <c:axId val="2062759744"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2062758016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>No.</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2062759744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2062759744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>runtime</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2062758016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>3000</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Steps, 16 Threads</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>parallel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.62225699999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78455266666666679</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3742000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.536969000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4F28-E44C-92CE-9D924444BEC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sequential</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.7915E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16783699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6738230000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.618423</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4F28-E44C-92CE-9D924444BEC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="451485072"/>
+        <c:axId val="451411504"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="451485072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>No. of Fish</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="451411504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="451411504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>runtime (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="451485072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>3000 Steps</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t>, 16 Threads (cont.)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>parallel</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$7:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$7:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>165.70953333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>237.58597033333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6DB8-3D4F-B04E-EE864F33369A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>sequential</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$7:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$7:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>161.642707</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>248.963638</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6DB8-3D4F-B04E-EE864F33369A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="499144192"/>
+        <c:axId val="1104897840"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="499144192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>No. of Fish</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1104897840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1104897840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="250"/>
+          <c:min val="150"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>runtime</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="499144192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>497416</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{523BF4A4-885D-6253-2719-E751E641E3CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>84666</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>84666</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>48683</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B2B3A14-857A-C987-B850-9CB6F45F2F23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>135467</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>156633</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>584201</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8B57B74-22AD-FC59-7EDE-8FE52AC590D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -438,190 +3833,357 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0236C1AF-BEED-0146-A1AB-AC8B6F172C5F}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="10.83203125" style="2"/>
-    <col min="8" max="10" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="2"/>
+    <col min="3" max="5" width="10.83203125" style="2"/>
+    <col min="8" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>148.41037</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>149.73457500000001</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>148.29354799999999</v>
       </c>
       <c r="E3" s="2">
-        <f>AVERAGE(B3:D3)</f>
+        <f t="shared" ref="E3:E9" si="0">AVERAGE(B3:D3)</f>
         <v>148.81283099999999</v>
       </c>
+      <c r="G3" s="3">
+        <v>100</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.62206499999999998</v>
+      </c>
+      <c r="I3">
+        <v>0.62208699999999995</v>
+      </c>
+      <c r="J3">
+        <v>0.62261900000000003</v>
+      </c>
+      <c r="K3">
+        <f>AVERAGE(H3:J3)</f>
+        <v>0.62225699999999995</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1.7915E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <f>A3*2</f>
+        <f t="shared" ref="A4:A9" si="1">A3*2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>155.01928599999999</v>
       </c>
       <c r="C4" s="2">
         <v>153.956863</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>156.023627</v>
       </c>
       <c r="E4" s="2">
-        <f>AVERAGE(B4:D4)</f>
+        <f t="shared" si="0"/>
         <v>154.99992533333332</v>
       </c>
+      <c r="G4">
+        <v>1000</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.78508100000000003</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.78609700000000005</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.78247999999999995</v>
+      </c>
+      <c r="K4">
+        <f>AVERAGE(H4:J4)</f>
+        <v>0.78455266666666679</v>
+      </c>
+      <c r="L4">
+        <v>0.16783699999999999</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <f>A4*2</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>156.04917499999999</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>155.69777099999999</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>155.38704899999999</v>
       </c>
       <c r="E5" s="2">
-        <f>AVERAGE(B5:D5)</f>
+        <f t="shared" si="0"/>
         <v>155.71133166666667</v>
       </c>
+      <c r="G5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2.3597090000000001</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2.36375</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2.3991410000000002</v>
+      </c>
+      <c r="K5">
+        <f>AVERAGE(H5:J5)</f>
+        <v>2.3742000000000001</v>
+      </c>
+      <c r="L5">
+        <v>1.6738230000000001</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <f>A5*2</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>156.28000800000001</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>156.49229500000001</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>155.25532000000001</v>
       </c>
       <c r="E6" s="2">
-        <f>AVERAGE(B6:D6)</f>
+        <f t="shared" si="0"/>
         <v>156.0092076666667</v>
       </c>
+      <c r="G6" s="3">
+        <v>100000</v>
+      </c>
+      <c r="H6" s="1">
+        <v>18.048874000000001</v>
+      </c>
+      <c r="I6" s="1">
+        <v>18.050806999999999</v>
+      </c>
+      <c r="J6" s="1">
+        <v>16.511226000000001</v>
+      </c>
+      <c r="K6">
+        <f>AVERAGE(H6:J6)</f>
+        <v>17.536969000000003</v>
+      </c>
+      <c r="L6" s="1">
+        <v>16.618423</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <f>A6*2</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>156.899721</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>155.128039</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>155.74640500000001</v>
       </c>
       <c r="E7" s="2">
-        <f>AVERAGE(B7:D7)</f>
+        <f t="shared" si="0"/>
         <v>155.92472166666667</v>
       </c>
+      <c r="G7" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="H7" s="1">
+        <v>170.900622</v>
+      </c>
+      <c r="I7" s="1">
+        <v>161.24624499999999</v>
+      </c>
+      <c r="J7" s="1">
+        <v>164.98173299999999</v>
+      </c>
+      <c r="K7">
+        <f>AVERAGE(H7:J7)</f>
+        <v>165.70953333333333</v>
+      </c>
+      <c r="L7" s="1">
+        <v>161.642707</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <f>A7*2</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>170.91656599999999</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>175.580107</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <v>175.893824</v>
       </c>
       <c r="E8" s="2">
-        <f>AVERAGE(B8:D8)</f>
+        <f t="shared" si="0"/>
         <v>174.13016566666667</v>
       </c>
+      <c r="G8" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="H8" s="1">
+        <v>245.13641200000001</v>
+      </c>
+      <c r="I8" s="1">
+        <v>233.863834</v>
+      </c>
+      <c r="J8" s="1">
+        <v>233.757665</v>
+      </c>
+      <c r="K8">
+        <f>AVERAGE(H8:J8)</f>
+        <v>237.58597033333334</v>
+      </c>
+      <c r="L8" s="1">
+        <v>248.963638</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <f>A8*2</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>177.99586500000001</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <v>174.878018</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="3">
         <v>175.575817</v>
       </c>
       <c r="E9" s="2">
-        <f>AVERAGE(B9:D9)</f>
+        <f t="shared" si="0"/>
         <v>176.1499</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="1"/>
-      <c r="D10" s="1"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+      <c r="D10" s="3"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="1"/>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="3"/>
       <c r="H11" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/testing.xlsx
+++ b/testing.xlsx
@@ -1,45 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\High Performance Computing\CITS3402-Fish-School-Behaviour-Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79137E9-3867-4529-814C-2F5B189EFC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName function="false" hidden="false" name="_xlchart.v1.0" vbProcedure="false">Sheet1!$G$3:$G$8</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.1" vbProcedure="false">Sheet1!$K$2</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.10" vbProcedure="false">Sheet1!$A$3:$A$9</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.11" vbProcedure="false">Sheet1!$E$3:$E$9</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.12" vbProcedure="false">Sheet1!$G$3:$G$8</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.13" vbProcedure="false">Sheet1!$K$2</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.14" vbProcedure="false">Sheet1!$K$3:$K$8</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.15" vbProcedure="false">Sheet1!$L$2</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.16" vbProcedure="false">Sheet1!$L$3:$L$8</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.17" vbProcedure="false">Sheet1!$K$7:$L$7</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.18" vbProcedure="false">Sheet1!$K$8:$L$8</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.19" vbProcedure="false">Sheet1!$K$7:$L$7</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.2" vbProcedure="false">Sheet1!$K$3:$K$8</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.20" vbProcedure="false">Sheet1!$K$8:$L$8</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.21" vbProcedure="false">Sheet1!$G$3:$G$8</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.22" vbProcedure="false">Sheet1!$K$2</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.23" vbProcedure="false">Sheet1!$K$3:$K$8</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.24" vbProcedure="false">Sheet1!$L$2</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.25" vbProcedure="false">Sheet1!$L$3:$L$8</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.3" vbProcedure="false">Sheet1!$L$2</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.4" vbProcedure="false">Sheet1!$L$3:$L$8</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.5" vbProcedure="false">Sheet1!$G$3:$G$8</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.6" vbProcedure="false">Sheet1!$K$2</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.7" vbProcedure="false">Sheet1!$K$3:$K$8</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.8" vbProcedure="false">Sheet1!$L$2</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.9" vbProcedure="false">Sheet1!$L$3:$L$8</definedName>
-  </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -50,47 +38,44 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
-    <t xml:space="preserve">3000 Steps, 1000000 Fish</t>
+    <t>3000 Steps, 1000000 Fish</t>
   </si>
   <si>
-    <t xml:space="preserve">3000 Steps, 16 Threads, Setonix</t>
+    <t>3000 Steps, 16 Threads, Setonix</t>
   </si>
   <si>
-    <t xml:space="preserve">Threads</t>
+    <t>Threads</t>
   </si>
   <si>
-    <t xml:space="preserve">t1</t>
+    <t>t1</t>
   </si>
   <si>
-    <t xml:space="preserve">t2</t>
+    <t>t2</t>
   </si>
   <si>
-    <t xml:space="preserve">t3</t>
+    <t>t3</t>
   </si>
   <si>
-    <t xml:space="preserve">t avg</t>
+    <t>t avg</t>
   </si>
   <si>
-    <t xml:space="preserve">Fish</t>
+    <t>Fish</t>
   </si>
   <si>
-    <t xml:space="preserve">parallel</t>
+    <t>parallel</t>
   </si>
   <si>
-    <t xml:space="preserve">sequential</t>
+    <t>sequential</t>
   </si>
   <si>
-    <t xml:space="preserve">3000 Steps, 16 Threads, Dell Laptop</t>
+    <t>3000 Steps, 16 Threads, Dell Laptop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -99,44 +84,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Menlo"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -148,7 +100,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -156,53 +108,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -261,15 +178,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -278,7 +213,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr lang="en-US" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -286,7 +221,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr lang="en-US" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -307,6 +242,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -317,20 +253,35 @@
             <c:strRef>
               <c:f>Sheet1!$A$3:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1 2 4 8 16 32 64</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="28440">
+            <a:ln w="28440" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -340,23 +291,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -365,8 +324,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -374,9 +334,10 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$A$3:$A$9</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -399,8 +360,8 @@
                 <c:pt idx="6">
                   <c:v>64</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -409,22 +370,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>148.812831</c:v>
+                  <c:v>148.81283099999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>154.999925333333</c:v>
+                  <c:v>154.99992533333332</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>155.711331666667</c:v>
+                  <c:v>155.71133166666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>156.009207666667</c:v>
+                  <c:v>156.0092076666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>155.924721666667</c:v>
+                  <c:v>155.92472166666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>174.130165666667</c:v>
+                  <c:v>174.13016566666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>176.1499</c:v>
@@ -433,7 +394,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-22F3-4095-A559-B76B3722C9E0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln w="0">
@@ -442,6 +416,7 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="59198267"/>
         <c:axId val="47047235"/>
       </c:lineChart>
@@ -459,7 +434,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" lang="en-GB" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr lang="en-GB" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -467,7 +442,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="en-GB" sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-GB" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -493,7 +468,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -503,13 +478,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="47047235"/>
@@ -530,7 +506,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -543,7 +519,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" lang="en-GB" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr lang="en-GB" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -551,7 +527,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="en-GB" sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-GB" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -584,13 +560,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59198267"/>
@@ -606,25 +583,33 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -633,7 +618,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" lang="en-GB" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr lang="en-GB" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -641,7 +626,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" lang="en-GB" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr lang="en-GB" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -662,6 +647,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -680,12 +666,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="28440">
+            <a:ln w="28440" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -695,23 +678,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -720,8 +711,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -729,9 +721,10 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$G$3:$G$6</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
@@ -745,8 +738,8 @@
                 <c:pt idx="3">
                   <c:v>100000</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -755,21 +748,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.622257</c:v>
+                  <c:v>0.62225699999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.784552666666667</c:v>
+                  <c:v>0.78455266666666679</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3742</c:v>
+                  <c:v>2.3742000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.536969</c:v>
+                  <c:v>17.536969000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F9B4-4AA2-9209-81A3B2BB7F16}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -786,12 +784,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="28440">
+            <a:ln w="28440" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -801,23 +796,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -826,8 +829,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -835,9 +839,10 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$G$3:$G$6</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
@@ -851,8 +856,8 @@
                 <c:pt idx="3">
                   <c:v>100000</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -861,13 +866,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.017915</c:v>
+                  <c:v>1.7915E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.167837</c:v>
+                  <c:v>0.16783699999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.673823</c:v>
+                  <c:v>1.6738230000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>16.618423</c:v>
@@ -876,7 +881,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F9B4-4AA2-9209-81A3B2BB7F16}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln w="0">
@@ -885,6 +903,7 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="68888104"/>
         <c:axId val="67888233"/>
       </c:lineChart>
@@ -902,7 +921,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" lang="en-GB" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr lang="en-GB" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -910,7 +929,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="en-GB" sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-GB" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -936,7 +955,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -946,13 +965,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="67888233"/>
@@ -974,7 +994,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -987,7 +1007,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" lang="en-GB" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr lang="en-GB" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -995,7 +1015,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="en-GB" sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-GB" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1028,13 +1048,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="68888104"/>
@@ -1063,37 +1084,46 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+            <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1102,7 +1132,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" lang="en-GB" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr lang="en-GB" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1110,7 +1140,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" lang="en-GB" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr lang="en-GB" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1131,6 +1161,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1138,23 +1169,12 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"parallel"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>parallel</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>parallel</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="28440">
+            <a:ln w="28440" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1164,23 +1184,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1189,8 +1217,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1198,9 +1227,10 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$G$7:$G$8</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1000000</c:v>
@@ -1208,8 +1238,8 @@
                 <c:pt idx="1">
                   <c:v>1500000</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1218,37 +1248,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>165.709533333333</c:v>
+                  <c:v>165.70953333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>237.585970333333</c:v>
+                  <c:v>237.58597033333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FF75-4F3F-A779-227EFB2B02D2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"sequential"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>sequential</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>sequential</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="28440">
+            <a:ln w="28440" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1258,23 +1282,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1283,8 +1315,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1292,9 +1325,10 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$G$7:$G$8</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1000000</c:v>
@@ -1302,8 +1336,8 @@
                 <c:pt idx="1">
                   <c:v>1500000</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1321,7 +1355,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FF75-4F3F-A779-227EFB2B02D2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln w="0">
@@ -1330,6 +1377,7 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="83323246"/>
         <c:axId val="59540214"/>
       </c:lineChart>
@@ -1347,7 +1395,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" lang="en-GB" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr lang="en-GB" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1355,7 +1403,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="en-GB" sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-GB" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1381,7 +1429,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1391,13 +1439,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59540214"/>
@@ -1420,7 +1469,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1433,7 +1482,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" lang="en-GB" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr lang="en-GB" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1441,7 +1490,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="en-GB" sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-GB" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1474,13 +1523,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="83323246"/>
@@ -1508,35 +1558,1165 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+            <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>3000 Steps, 16 Threads, Dell Laptop</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>parallel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$12:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$12:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.4437</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6846000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.541971</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>209.42509999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1574.5107</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1964.2471</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CF82-4CF8-8B73-57A0A5A81977}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sequential</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$12:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$12:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.9399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2472</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8972</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.458600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>181.5163</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>273.56270000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CF82-4CF8-8B73-57A0A5A81977}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1830857024"/>
+        <c:axId val="1731586016"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1830857024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Fish</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1731586016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1731586016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time(S)</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1830857024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1550,14 +2730,20 @@
       <xdr:row>42</xdr:row>
       <xdr:rowOff>22320</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="4883040"/>
-        <a:ext cx="5958000" cy="3473640"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1580,14 +2766,20 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 5"/>
+        <xdr:cNvPr id="3" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7193520" y="4120560"/>
-        <a:ext cx="5782320" cy="2727360"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1610,14 +2802,20 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>110160</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 8"/>
+        <xdr:cNvPr id="4" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14048640" y="3916800"/>
-        <a:ext cx="5553720" cy="2727360"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1627,433 +2825,756 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>619760</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEABB942-FB52-FAA1-B640-1ABEC4302900}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N11" activeCellId="0" sqref="N11"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.6"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="0" width="12.83"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="11.69921875" customWidth="1"/>
+    <col min="3" max="5" width="10.796875" customWidth="1"/>
+    <col min="8" max="10" width="12.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:12">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3">
         <v>148.41037</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>149.734575</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>148.293548</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <f aca="false">AVERAGE(B3:D3)</f>
-        <v>148.812831</v>
-      </c>
-      <c r="G3" s="1" t="n">
+      <c r="C3">
+        <v>149.73457500000001</v>
+      </c>
+      <c r="D3">
+        <v>148.29354799999999</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E9" si="0">AVERAGE(B3:D3)</f>
+        <v>148.81283099999999</v>
+      </c>
+      <c r="G3">
         <v>100</v>
       </c>
-      <c r="H3" s="2" t="n">
-        <v>0.622065</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>0.622087</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>0.622619</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <f aca="false">AVERAGE(H3:J3)</f>
-        <v>0.622257</v>
-      </c>
-      <c r="L3" s="2" t="n">
-        <v>0.017915</v>
+      <c r="H3" s="1">
+        <v>0.62206499999999998</v>
+      </c>
+      <c r="I3">
+        <v>0.62208699999999995</v>
+      </c>
+      <c r="J3">
+        <v>0.62261900000000003</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K8" si="1">AVERAGE(H3:J3)</f>
+        <v>0.62225699999999995</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1.7915E-2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <f aca="false">A3*2</f>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <f t="shared" ref="A4:A9" si="2">A3*2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="n">
-        <v>155.019286</v>
-      </c>
-      <c r="C4" s="1" t="n">
+      <c r="B4">
+        <v>155.01928599999999</v>
+      </c>
+      <c r="C4">
         <v>153.956863</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4">
         <v>156.023627</v>
       </c>
-      <c r="E4" s="1" t="n">
-        <f aca="false">AVERAGE(B4:D4)</f>
-        <v>154.999925333333</v>
-      </c>
-      <c r="G4" s="0" t="n">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>154.99992533333332</v>
+      </c>
+      <c r="G4">
         <v>1000</v>
       </c>
-      <c r="H4" s="2" t="n">
-        <v>0.785081</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>0.786097</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>0.78248</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <f aca="false">AVERAGE(H4:J4)</f>
-        <v>0.784552666666667</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>0.167837</v>
+      <c r="H4" s="1">
+        <v>0.78508100000000003</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.78609700000000005</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.78247999999999995</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>0.78455266666666679</v>
+      </c>
+      <c r="L4">
+        <v>0.16783699999999999</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <f aca="false">A4*2</f>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="n">
-        <v>156.049175</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>155.697771</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>155.387049</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <f aca="false">AVERAGE(B5:D5)</f>
-        <v>155.711331666667</v>
-      </c>
-      <c r="G5" s="1" t="n">
+      <c r="B5">
+        <v>156.04917499999999</v>
+      </c>
+      <c r="C5">
+        <v>155.69777099999999</v>
+      </c>
+      <c r="D5">
+        <v>155.38704899999999</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>155.71133166666667</v>
+      </c>
+      <c r="G5">
         <v>10000</v>
       </c>
-      <c r="H5" s="1" t="n">
-        <v>2.359709</v>
-      </c>
-      <c r="I5" s="2" t="n">
+      <c r="H5">
+        <v>2.3597090000000001</v>
+      </c>
+      <c r="I5" s="1">
         <v>2.36375</v>
       </c>
-      <c r="J5" s="2" t="n">
-        <v>2.399141</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <f aca="false">AVERAGE(H5:J5)</f>
-        <v>2.3742</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>1.673823</v>
+      <c r="J5" s="1">
+        <v>2.3991410000000002</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>2.3742000000000001</v>
+      </c>
+      <c r="L5">
+        <v>1.6738230000000001</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <f aca="false">A5*2</f>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="n">
-        <v>156.280008</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>156.492295</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>155.25532</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <f aca="false">AVERAGE(B6:D6)</f>
-        <v>156.009207666667</v>
-      </c>
-      <c r="G6" s="1" t="n">
+      <c r="B6">
+        <v>156.28000800000001</v>
+      </c>
+      <c r="C6">
+        <v>156.49229500000001</v>
+      </c>
+      <c r="D6">
+        <v>155.25532000000001</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>156.0092076666667</v>
+      </c>
+      <c r="G6">
         <v>100000</v>
       </c>
-      <c r="H6" s="2" t="n">
-        <v>18.048874</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>18.050807</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>16.511226</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <f aca="false">AVERAGE(H6:J6)</f>
-        <v>17.536969</v>
-      </c>
-      <c r="L6" s="2" t="n">
+      <c r="H6" s="1">
+        <v>18.048874000000001</v>
+      </c>
+      <c r="I6" s="1">
+        <v>18.050806999999999</v>
+      </c>
+      <c r="J6" s="1">
+        <v>16.511226000000001</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>17.536969000000003</v>
+      </c>
+      <c r="L6" s="1">
         <v>16.618423</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <f aca="false">A6*2</f>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7">
         <v>156.899721</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7">
         <v>155.128039</v>
       </c>
-      <c r="D7" s="1" t="n">
-        <v>155.746405</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <f aca="false">AVERAGE(B7:D7)</f>
-        <v>155.924721666667</v>
-      </c>
-      <c r="G7" s="1" t="n">
+      <c r="D7">
+        <v>155.74640500000001</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>155.92472166666667</v>
+      </c>
+      <c r="G7">
         <v>1000000</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="1">
         <v>170.900622</v>
       </c>
-      <c r="I7" s="2" t="n">
-        <v>161.246245</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>164.981733</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <f aca="false">AVERAGE(H7:J7)</f>
-        <v>165.709533333333</v>
-      </c>
-      <c r="L7" s="2" t="n">
+      <c r="I7" s="1">
+        <v>161.24624499999999</v>
+      </c>
+      <c r="J7" s="1">
+        <v>164.98173299999999</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>165.70953333333333</v>
+      </c>
+      <c r="L7" s="1">
         <v>161.642707</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <f aca="false">A7*2</f>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="B8" s="1" t="n">
-        <v>170.916566</v>
-      </c>
-      <c r="C8" s="1" t="n">
+      <c r="B8">
+        <v>170.91656599999999</v>
+      </c>
+      <c r="C8">
         <v>175.580107</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8">
         <v>175.893824</v>
       </c>
-      <c r="E8" s="1" t="n">
-        <f aca="false">AVERAGE(B8:D8)</f>
-        <v>174.130165666667</v>
-      </c>
-      <c r="G8" s="1" t="n">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>174.13016566666667</v>
+      </c>
+      <c r="G8">
         <v>1500000</v>
       </c>
-      <c r="H8" s="2" t="n">
-        <v>245.136412</v>
-      </c>
-      <c r="I8" s="2" t="n">
+      <c r="H8" s="1">
+        <v>245.13641200000001</v>
+      </c>
+      <c r="I8" s="1">
         <v>233.863834</v>
       </c>
-      <c r="J8" s="2" t="n">
+      <c r="J8" s="1">
         <v>233.757665</v>
       </c>
-      <c r="K8" s="0" t="n">
-        <f aca="false">AVERAGE(H8:J8)</f>
-        <v>237.585970333333</v>
-      </c>
-      <c r="L8" s="2" t="n">
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>237.58597033333334</v>
+      </c>
+      <c r="L8" s="1">
         <v>248.963638</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <f aca="false">A8*2</f>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="B9" s="1" t="n">
-        <v>177.995865</v>
-      </c>
-      <c r="C9" s="1" t="n">
+      <c r="B9">
+        <v>177.99586500000001</v>
+      </c>
+      <c r="C9">
         <v>174.878018</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9">
         <v>175.575817</v>
       </c>
-      <c r="E9" s="1" t="n">
-        <f aca="false">AVERAGE(B9:D9)</f>
+      <c r="E9">
+        <f t="shared" si="0"/>
         <v>176.1499</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G10" s="0" t="s">
+    <row r="10" spans="1:12">
+      <c r="G10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G11" s="0" t="s">
+    <row r="11" spans="1:12">
+      <c r="G11" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G12" s="1" t="n">
+    <row r="12" spans="1:12">
+      <c r="G12">
         <v>100</v>
       </c>
-      <c r="H12" s="1" t="n">
+      <c r="H12">
         <v>1.4437</v>
       </c>
-      <c r="I12" s="2" t="n">
-        <v>0.0494</v>
+      <c r="I12" s="1">
+        <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="G13" s="0" t="n">
+    <row r="13" spans="1:12">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="G13">
         <v>1000</v>
       </c>
-      <c r="H13" s="1" t="n">
-        <v>3.6846</v>
-      </c>
-      <c r="I13" s="1" t="n">
+      <c r="H13">
+        <v>3.6846000000000001</v>
+      </c>
+      <c r="I13">
         <v>0.2472</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="G14" s="1" t="n">
+    <row r="14" spans="1:12">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="G14">
         <v>10000</v>
       </c>
-      <c r="H14" s="1" t="n">
+      <c r="H14">
         <v>23.541971</v>
       </c>
-      <c r="I14" s="1" t="n">
+      <c r="I14">
         <v>1.8972</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="G15" s="1" t="n">
+    <row r="15" spans="1:12">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="G15">
         <v>100000</v>
       </c>
-      <c r="H15" s="1" t="n">
-        <v>209.4251</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>18.4586</v>
+      <c r="H15">
+        <v>209.42509999999999</v>
+      </c>
+      <c r="I15" s="1">
+        <v>18.458600000000001</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="G16" s="1" t="n">
+    <row r="16" spans="1:12">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="G16">
         <v>1000000</v>
       </c>
-      <c r="H16" s="1" t="n">
+      <c r="H16">
         <v>1574.5107</v>
       </c>
-      <c r="I16" s="2" t="n">
+      <c r="I16" s="1">
         <v>181.5163</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="G17" s="1" t="n">
+    <row r="17" spans="2:10">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="G17">
         <v>1500000</v>
       </c>
-      <c r="H17" s="2" t="n">
+      <c r="H17" s="1">
         <v>1964.2471</v>
       </c>
-      <c r="I17" s="2" t="n">
-        <v>273.5627</v>
-      </c>
-      <c r="J17" s="2"/>
+      <c r="I17" s="1">
+        <v>273.56270000000001</v>
+      </c>
+      <c r="J17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+    <row r="18" spans="2:10">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+    <row r="19" spans="2:10">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/testing.xlsx
+++ b/testing.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t xml:space="preserve">3000 Steps, 1000000 Fish</t>
   </si>
@@ -266,7 +266,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -442,11 +442,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="58954492"/>
-        <c:axId val="92718497"/>
+        <c:axId val="59198267"/>
+        <c:axId val="47047235"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58954492"/>
+        <c:axId val="59198267"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -512,7 +512,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92718497"/>
+        <c:crossAx val="47047235"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -520,7 +520,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92718497"/>
+        <c:axId val="47047235"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -593,7 +593,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58954492"/>
+        <c:crossAx val="59198267"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -621,7 +621,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -885,11 +885,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="70114121"/>
-        <c:axId val="79971847"/>
+        <c:axId val="68888104"/>
+        <c:axId val="67888233"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70114121"/>
+        <c:axId val="68888104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -955,7 +955,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79971847"/>
+        <c:crossAx val="67888233"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -963,7 +963,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79971847"/>
+        <c:axId val="67888233"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -1037,7 +1037,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70114121"/>
+        <c:crossAx val="68888104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5"/>
@@ -1090,7 +1090,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1330,11 +1330,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="70936679"/>
-        <c:axId val="20642305"/>
+        <c:axId val="83323246"/>
+        <c:axId val="59540214"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70936679"/>
+        <c:axId val="83323246"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1400,7 +1400,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20642305"/>
+        <c:crossAx val="59540214"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1408,7 +1408,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="20642305"/>
+        <c:axId val="59540214"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -1483,7 +1483,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70936679"/>
+        <c:crossAx val="83323246"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1546,9 +1546,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>500040</xdr:colOff>
+      <xdr:colOff>499680</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>22680</xdr:rowOff>
+      <xdr:rowOff>22320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1557,7 +1557,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="4883040"/>
-        <a:ext cx="5958360" cy="3474000"/>
+        <a:ext cx="5958000" cy="3473640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1576,9 +1576,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>713160</xdr:colOff>
+      <xdr:colOff>712800</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1586,8 +1586,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7192800" y="4120560"/>
-        <a:ext cx="5781600" cy="2727720"/>
+        <a:off x="7193520" y="4120560"/>
+        <a:ext cx="5782320" cy="2727360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1606,9 +1606,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>191880</xdr:colOff>
+      <xdr:colOff>191520</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>110520</xdr:rowOff>
+      <xdr:rowOff>110160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1616,8 +1616,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14046120" y="3916800"/>
-        <a:ext cx="5550120" cy="2727720"/>
+        <a:off x="14048640" y="3916800"/>
+        <a:ext cx="5553720" cy="2727360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1638,10 +1638,10 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N17" activeCellId="0" sqref="N17"/>
+      <selection pane="topLeft" activeCell="N11" activeCellId="0" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.66"/>
@@ -1947,19 +1947,10 @@
       <c r="G11" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="0" t="s">
+      <c r="H11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="0" t="s">
+      <c r="I11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1967,21 +1958,11 @@
       <c r="G12" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="H12" s="2" t="n">
-        <v>0.622065</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>0.622087</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>0.622619</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <f aca="false">AVERAGE(H12:J12)</f>
-        <v>0.622257</v>
-      </c>
-      <c r="L12" s="2" t="n">
-        <v>0.049434</v>
+      <c r="H12" s="1" t="n">
+        <v>1.4437</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>0.0494</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1991,21 +1972,11 @@
       <c r="G13" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="H13" s="2" t="n">
-        <v>0.785081</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>0.786097</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>0.78248</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <f aca="false">AVERAGE(H13:J13)</f>
-        <v>0.784552666666667</v>
-      </c>
-      <c r="L13" s="0" t="n">
-        <v>0.247215</v>
+      <c r="H13" s="1" t="n">
+        <v>3.6846</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>0.2472</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2016,19 +1987,9 @@
         <v>10000</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>2.359709</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>2.36375</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>2.399141</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <f aca="false">AVERAGE(H14:J14)</f>
-        <v>2.3742</v>
-      </c>
-      <c r="L14" s="0" t="n">
+        <v>23.541971</v>
+      </c>
+      <c r="I14" s="1" t="n">
         <v>1.8972</v>
       </c>
     </row>
@@ -2039,21 +2000,11 @@
       <c r="G15" s="1" t="n">
         <v>100000</v>
       </c>
-      <c r="H15" s="2" t="n">
-        <v>18.048874</v>
+      <c r="H15" s="1" t="n">
+        <v>209.4251</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>18.050807</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>16.511226</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <f aca="false">AVERAGE(H15:J15)</f>
-        <v>17.536969</v>
-      </c>
-      <c r="L15" s="2" t="n">
-        <v>18.458616</v>
+        <v>18.4586</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2063,20 +2014,10 @@
       <c r="G16" s="1" t="n">
         <v>1000000</v>
       </c>
-      <c r="H16" s="2" t="n">
-        <v>170.900622</v>
+      <c r="H16" s="1" t="n">
+        <v>1574.5107</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>161.246245</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>164.981733</v>
-      </c>
-      <c r="K16" s="0" t="n">
-        <f aca="false">AVERAGE(H16:J16)</f>
-        <v>165.709533333333</v>
-      </c>
-      <c r="L16" s="2" t="n">
         <v>181.5163</v>
       </c>
     </row>
@@ -2088,21 +2029,12 @@
         <v>1500000</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>245.136412</v>
+        <v>1964.2471</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>233.863834</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>233.757665</v>
-      </c>
-      <c r="K17" s="0" t="n">
-        <f aca="false">AVERAGE(H17:J17)</f>
-        <v>237.585970333333</v>
-      </c>
-      <c r="L17" s="2" t="n">
-        <v>273.522789</v>
-      </c>
+        <v>273.5627</v>
+      </c>
+      <c r="J17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="2"/>

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\High Performance Computing\CITS3402-Fish-School-Behaviour-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aloysiusloh/Documents/GitHub/CITS3402-Fish-School-Behaviour-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79137E9-3867-4529-814C-2F5B189EFC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E1800B-AE2D-4948-AF17-AEF344191FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="25600" windowHeight="14280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$T$3:$T$6</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$X$2</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$X$3:$X$6</definedName>
+  </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>3000 Steps, 1000000 Fish</t>
   </si>
@@ -70,12 +75,30 @@
   <si>
     <t>3000 Steps, 16 Threads, Dell Laptop</t>
   </si>
+  <si>
+    <t>3000 Steps, 16 Threads, 1000000 fish</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t>dynamic</t>
+  </si>
+  <si>
+    <t>guided</t>
+  </si>
+  <si>
+    <t>dynamic (chunk size = fish/threads)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -89,6 +112,12 @@
       <name val="Menlo"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,9 +140,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -202,7 +232,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -607,7 +637,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -1121,7 +1151,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -1595,7 +1625,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2159,7 +2189,420 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Scheduling Methods</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$X$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>t avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$T$3:$T$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>static</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>guided</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dynamic</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dynamic (chunk size = fish/threads)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$X$3:$X$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>153.52926299999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>174.96572566666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>196.52163066666665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>163.19115433333332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E6B2-2440-904F-EBD9B09A1879}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2059797519"/>
+        <c:axId val="2060356367"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2059797519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2060356367"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2060356367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>runtime</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2059797519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2362,6 +2805,509 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2856,6 +3802,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>717550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E57624C-8684-ABD1-0814-C8F31EC1C239}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3161,29 +4143,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="11.69921875" customWidth="1"/>
-    <col min="3" max="5" width="10.796875" customWidth="1"/>
-    <col min="8" max="10" width="12.796875" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="5" width="10.83203125" customWidth="1"/>
+    <col min="8" max="10" width="12.83203125" customWidth="1"/>
+    <col min="20" max="20" width="32.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
       </c>
+      <c r="T1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3217,8 +4203,23 @@
       <c r="L2" t="s">
         <v>9</v>
       </c>
+      <c r="T2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" t="s">
+        <v>4</v>
+      </c>
+      <c r="W2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3254,8 +4255,24 @@
       <c r="L3" s="1">
         <v>1.7915E-2</v>
       </c>
+      <c r="T3" t="s">
+        <v>13</v>
+      </c>
+      <c r="U3" s="2">
+        <v>154.51690300000001</v>
+      </c>
+      <c r="V3" s="2">
+        <v>152.52462399999999</v>
+      </c>
+      <c r="W3" s="2">
+        <v>153.54626200000001</v>
+      </c>
+      <c r="X3">
+        <f>AVERAGE(U3:W3)</f>
+        <v>153.52926299999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ref="A4:A9" si="2">A3*2</f>
         <v>2</v>
@@ -3292,8 +4309,24 @@
       <c r="L4">
         <v>0.16783699999999999</v>
       </c>
+      <c r="T4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U4" s="2">
+        <v>173.836174</v>
+      </c>
+      <c r="V4" s="2">
+        <v>176.43526700000001</v>
+      </c>
+      <c r="W4" s="2">
+        <v>174.62573599999999</v>
+      </c>
+      <c r="X4">
+        <f>AVERAGE(U4:W4)</f>
+        <v>174.96572566666666</v>
+      </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -3330,8 +4363,24 @@
       <c r="L5">
         <v>1.6738230000000001</v>
       </c>
+      <c r="T5" t="s">
+        <v>14</v>
+      </c>
+      <c r="U5" s="2">
+        <v>194.601699</v>
+      </c>
+      <c r="V5" s="2">
+        <v>198.31782999999999</v>
+      </c>
+      <c r="W5" s="2">
+        <v>196.645363</v>
+      </c>
+      <c r="X5">
+        <f>AVERAGE(U5:W5)</f>
+        <v>196.52163066666665</v>
+      </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -3368,8 +4417,24 @@
       <c r="L6" s="1">
         <v>16.618423</v>
       </c>
+      <c r="T6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U6" s="1">
+        <v>163.345485</v>
+      </c>
+      <c r="V6" s="1">
+        <v>161.24624499999999</v>
+      </c>
+      <c r="W6" s="1">
+        <v>164.98173299999999</v>
+      </c>
+      <c r="X6">
+        <f>AVERAGE(U6:W6)</f>
+        <v>163.19115433333332</v>
+      </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -3407,7 +4472,7 @@
         <v>161.642707</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -3445,7 +4510,7 @@
         <v>248.963638</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="2"/>
         <v>64</v>
@@ -3464,12 +4529,12 @@
         <v>176.1499</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="G10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="G11" t="s">
         <v>7</v>
       </c>
@@ -3480,7 +4545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="G12">
         <v>100</v>
       </c>
@@ -3491,7 +4556,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -3505,7 +4570,7 @@
         <v>0.2472</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -3519,7 +4584,7 @@
         <v>1.8972</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -3533,7 +4598,7 @@
         <v>18.458600000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -3547,7 +4612,7 @@
         <v>181.5163</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -3562,12 +4627,12 @@
       </c>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t xml:space="preserve">3000 Steps, 1000000 Fish</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t xml:space="preserve">sequential</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x`</t>
   </si>
   <si>
     <t xml:space="preserve">3000 Steps, 16 Threads, Dell Laptop</t>
@@ -266,7 +269,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -442,11 +445,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="59198267"/>
-        <c:axId val="47047235"/>
+        <c:axId val="12523166"/>
+        <c:axId val="49504207"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59198267"/>
+        <c:axId val="12523166"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -512,7 +515,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47047235"/>
+        <c:crossAx val="49504207"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -520,7 +523,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47047235"/>
+        <c:axId val="49504207"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -593,7 +596,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59198267"/>
+        <c:crossAx val="12523166"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -621,7 +624,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -885,11 +888,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="68888104"/>
-        <c:axId val="67888233"/>
+        <c:axId val="50333211"/>
+        <c:axId val="76999047"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68888104"/>
+        <c:axId val="50333211"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -955,7 +958,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67888233"/>
+        <c:crossAx val="76999047"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -963,7 +966,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67888233"/>
+        <c:axId val="76999047"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -1037,7 +1040,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68888104"/>
+        <c:crossAx val="50333211"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5"/>
@@ -1090,7 +1093,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1314,9 +1317,6 @@
                 <c:pt idx="0">
                   <c:v>161.642707</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>248.963638</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1330,11 +1330,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="83323246"/>
-        <c:axId val="59540214"/>
+        <c:axId val="35983179"/>
+        <c:axId val="21697204"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83323246"/>
+        <c:axId val="35983179"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1400,7 +1400,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59540214"/>
+        <c:crossAx val="21697204"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1408,7 +1408,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59540214"/>
+        <c:axId val="21697204"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -1483,7 +1483,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83323246"/>
+        <c:crossAx val="35983179"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1546,9 +1546,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>499680</xdr:colOff>
+      <xdr:colOff>499320</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>22320</xdr:rowOff>
+      <xdr:rowOff>21960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1557,7 +1557,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="4883040"/>
-        <a:ext cx="5958000" cy="3473640"/>
+        <a:ext cx="5957640" cy="3473280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1576,9 +1576,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>712800</xdr:colOff>
+      <xdr:colOff>712440</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>113400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1586,8 +1586,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7193520" y="4120560"/>
-        <a:ext cx="5782320" cy="2727360"/>
+        <a:off x="7193880" y="4120560"/>
+        <a:ext cx="5783760" cy="2727000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1606,9 +1606,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>191520</xdr:colOff>
+      <xdr:colOff>191160</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>110160</xdr:rowOff>
+      <xdr:rowOff>109800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1616,8 +1616,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14048640" y="3916800"/>
-        <a:ext cx="5553720" cy="2727360"/>
+        <a:off x="14051160" y="3916800"/>
+        <a:ext cx="5556960" cy="2727000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1638,10 +1638,10 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N11" activeCellId="0" sqref="N11"/>
+      <selection pane="topLeft" activeCell="L8" activeCellId="0" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.66"/>
@@ -1915,8 +1915,8 @@
         <f aca="false">AVERAGE(H8:J8)</f>
         <v>237.585970333333</v>
       </c>
-      <c r="L8" s="2" t="n">
-        <v>248.963638</v>
+      <c r="L8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1940,7 +1940,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G10" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -8,18 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aloysiusloh/Documents/GitHub/CITS3402-Fish-School-Behaviour-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E1800B-AE2D-4948-AF17-AEF344191FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BEF8A2-B415-304C-A504-E852562CC96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="25600" windowHeight="14280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$T$3:$T$6</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$X$2</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$X$3:$X$6</definedName>
-  </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2031,14 +2026,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time(S)</a:t>
+                  <a:t>runtime (s)</a:t>
                 </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
